--- a/ExportData/Data User1 Test19-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test19-15-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P6"/>
+  <dimension ref="A3:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>31.86</t>
+          <t>41.02</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>6.362</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -575,37 +575,37 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>6.362</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>0.370</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>4.993</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>41.36</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2.374</t>
+          <t>2.133</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2.374</t>
+          <t>2.133</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>9.496</t>
+          <t>8.532</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -652,37 +652,37 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>9.496</t>
+          <t>8.532</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>0.127</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>0.510</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>1.746</t>
+          <t>1.522</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>6.986</t>
+          <t>6.087</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -692,9 +692,19 @@
           <t>1:0:30</t>
         </is>
       </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>2.342</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -704,12 +714,12 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>2.342</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>8.999</t>
+          <t>9.370</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -719,37 +729,874 @@
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>8.999</t>
+          <t>9.370</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>0.116</t>
+          <t>0.123</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>0.464</t>
+          <t>0.491</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>1.634</t>
+          <t>1.720</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t>6.535</t>
+          <t>6.879</t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>32.8</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>1:0:45</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>3.173</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>3.173</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>12.691</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>12.691</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>0.173</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t>0.691</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="N7" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O7" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="P7" s="3" t="inlineStr">
+        <is>
+          <t>34.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>1:1:0</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>3.166</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>3.166</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>12.664</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>0.167</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>0.668</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>34.9</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>2.499</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>9.996</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>1:1:15</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>43.26</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>3.190</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>3.190</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>12.759</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>12.759</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>0.191</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="inlineStr">
+        <is>
+          <t>0.763</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>36.5</t>
+        </is>
+      </c>
+      <c r="N9" s="3" t="inlineStr">
+        <is>
+          <t>2.499</t>
+        </is>
+      </c>
+      <c r="O9" s="3" t="inlineStr">
+        <is>
+          <t>9.996</t>
+        </is>
+      </c>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>39.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>1:1:30</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>43.77</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>3.182</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>3.182</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>12.728</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>12.728</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>0.182</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>0.728</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
+        <is>
+          <t>41.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>1:1:45</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>3.174</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>3.174</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>12.694</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>12.694</t>
+        </is>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>0.174</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>0.694</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>39.5</t>
+        </is>
+      </c>
+      <c r="N11" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O11" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="P11" s="3" t="inlineStr">
+        <is>
+          <t>43.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>1:2:0</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>3.166</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>3.166</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>12.662</t>
+        </is>
+      </c>
+      <c r="I12" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>12.662</t>
+        </is>
+      </c>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>0.167</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="inlineStr">
+        <is>
+          <t>0.667</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>40.9</t>
+        </is>
+      </c>
+      <c r="N12" s="3" t="inlineStr">
+        <is>
+          <t>2.499</t>
+        </is>
+      </c>
+      <c r="O12" s="3" t="inlineStr">
+        <is>
+          <t>9.995</t>
+        </is>
+      </c>
+      <c r="P12" s="3" t="inlineStr">
+        <is>
+          <t>45.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>1:2:15</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>45.30</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>3.192</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>3.192</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>12.769</t>
+        </is>
+      </c>
+      <c r="I13" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>12.769</t>
+        </is>
+      </c>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>0.196</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="inlineStr">
+        <is>
+          <t>0.784</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>42.6</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>2.496</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>9.985</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
+          <t>47.6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>1:2:30</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>3.185</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>3.185</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>12.740</t>
+        </is>
+      </c>
+      <c r="I14" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>12.740</t>
+        </is>
+      </c>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>0.185</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="inlineStr">
+        <is>
+          <t>0.740</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>44.2</t>
+        </is>
+      </c>
+      <c r="N14" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O14" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="P14" s="3" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>1:2:45</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>46.31</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>3.174</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>3.174</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>12.697</t>
+        </is>
+      </c>
+      <c r="I15" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>12.697</t>
+        </is>
+      </c>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>0.174</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="inlineStr">
+        <is>
+          <t>0.697</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>45.7</t>
+        </is>
+      </c>
+      <c r="N15" s="3" t="inlineStr">
+        <is>
+          <t>2.500</t>
+        </is>
+      </c>
+      <c r="O15" s="3" t="inlineStr">
+        <is>
+          <t>10.000</t>
+        </is>
+      </c>
+      <c r="P15" s="3" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>1:3:0</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>46.82</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>3.164</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>3.164</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>12.657</t>
+        </is>
+      </c>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>12.657</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>0.166</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>0.664</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>47.1</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr">
+        <is>
+          <t>2.498</t>
+        </is>
+      </c>
+      <c r="O16" s="3" t="inlineStr">
+        <is>
+          <t>9.994</t>
+        </is>
+      </c>
+      <c r="P16" s="3" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>1:3:15</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>3.201</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>3.201</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>12.804</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>12.804</t>
+        </is>
+      </c>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>0.204</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="inlineStr">
+        <is>
+          <t>0.817</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="N17" s="3" t="inlineStr">
+        <is>
+          <t>2.497</t>
+        </is>
+      </c>
+      <c r="O17" s="3" t="inlineStr">
+        <is>
+          <t>9.987</t>
+        </is>
+      </c>
+      <c r="P17" s="3" t="inlineStr">
+        <is>
+          <t>56.1</t>
         </is>
       </c>
     </row>

--- a/ExportData/Data User1 Test19-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test19-15-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P17"/>
+  <dimension ref="A3:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>41.02</t>
+          <t>46.84</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.106</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.106</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>6.370</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -575,37 +575,37 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>6.370</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.370</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30.1</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.083</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>30.1</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>41.36</t>
+          <t>47.21</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2.133</t>
+          <t>2.312</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2.133</t>
+          <t>2.312</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>8.532</t>
+          <t>9.248</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -652,37 +652,37 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>8.532</t>
+          <t>9.248</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>0.111</t>
+          <t>0.123</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>0.446</t>
+          <t>0.493</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>1.522</t>
+          <t>1.689</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>6.087</t>
+          <t>6.755</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>31.5</t>
         </is>
       </c>
     </row>
@@ -694,17 +694,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>41.74</t>
+          <t>47.57</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>2.342</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
@@ -714,12 +714,12 @@
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>2.342</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>9.370</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
@@ -729,37 +729,37 @@
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>9.370</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.116</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>0.491</t>
+          <t>0.465</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>32.1</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>1.720</t>
+          <t>1.634</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t>6.879</t>
+          <t>6.534</t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>32.9</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>42.25</t>
+          <t>47.93</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>3.173</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>3.173</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>12.691</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I7" s="3" t="inlineStr">
@@ -806,37 +806,37 @@
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
-          <t>12.691</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>0.173</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>0.691</t>
+          <t>0.454</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>33.1</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.636</t>
         </is>
       </c>
       <c r="O7" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>6.545</t>
         </is>
       </c>
       <c r="P7" s="3" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>34.3</t>
         </is>
       </c>
     </row>
@@ -848,17 +848,17 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>42.75</t>
+          <t>48.29</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>3.166</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>3.166</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>12.664</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
@@ -883,37 +883,37 @@
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
-          <t>12.664</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.111</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>0.668</t>
+          <t>0.446</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>2.499</t>
+          <t>1.638</t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>9.996</t>
+          <t>6.553</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>35.7</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>43.26</t>
+          <t>48.65</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>3.190</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>3.190</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>12.759</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I9" s="3" t="inlineStr">
@@ -960,37 +960,37 @@
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
-          <t>12.759</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>0.191</t>
+          <t>0.128</t>
         </is>
       </c>
       <c r="L9" s="3" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>0.511</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="N9" s="3" t="inlineStr">
         <is>
-          <t>2.499</t>
+          <t>1.622</t>
         </is>
       </c>
       <c r="O9" s="3" t="inlineStr">
         <is>
-          <t>9.996</t>
+          <t>6.488</t>
         </is>
       </c>
       <c r="P9" s="3" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>37.1</t>
         </is>
       </c>
     </row>
@@ -1002,17 +1002,17 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>43.77</t>
+          <t>49.01</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>3.182</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>3.182</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>12.728</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
@@ -1037,37 +1037,37 @@
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
-          <t>12.728</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>0.182</t>
+          <t>0.124</t>
         </is>
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.497</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="N10" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.625</t>
         </is>
       </c>
       <c r="O10" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>6.502</t>
         </is>
       </c>
       <c r="P10" s="3" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>38.4</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>49.37</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>3.174</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>3.174</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>12.694</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
@@ -1114,37 +1114,37 @@
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
-          <t>12.694</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>0.174</t>
+          <t>0.121</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
         <is>
-          <t>0.694</t>
+          <t>0.483</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="N11" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.629</t>
         </is>
       </c>
       <c r="O11" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>6.516</t>
         </is>
       </c>
       <c r="P11" s="3" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>39.8</t>
         </is>
       </c>
     </row>
@@ -1156,17 +1156,17 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>44.79</t>
+          <t>49.73</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>3.166</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>3.166</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>12.662</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I12" s="3" t="inlineStr">
@@ -1191,37 +1191,37 @@
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>12.662</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.118</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
         <is>
-          <t>0.667</t>
+          <t>0.473</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="N12" s="3" t="inlineStr">
         <is>
-          <t>2.499</t>
+          <t>1.632</t>
         </is>
       </c>
       <c r="O12" s="3" t="inlineStr">
         <is>
-          <t>9.995</t>
+          <t>6.526</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>41.2</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>45.30</t>
+          <t>50.09</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>3.192</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>3.192</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>12.769</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I13" s="3" t="inlineStr">
@@ -1268,37 +1268,37 @@
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
-          <t>12.769</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>0.784</t>
+          <t>0.559</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
         <is>
+          <t>39.4</t>
+        </is>
+      </c>
+      <c r="N13" s="3" t="inlineStr">
+        <is>
+          <t>1.610</t>
+        </is>
+      </c>
+      <c r="O13" s="3" t="inlineStr">
+        <is>
+          <t>6.440</t>
+        </is>
+      </c>
+      <c r="P13" s="3" t="inlineStr">
+        <is>
           <t>42.6</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>2.496</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>9.985</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>47.6</t>
         </is>
       </c>
     </row>
@@ -1310,17 +1310,17 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>45.81</t>
+          <t>50.45</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>3.185</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
@@ -1330,12 +1330,12 @@
       </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>3.185</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>12.740</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I14" s="3" t="inlineStr">
@@ -1345,37 +1345,37 @@
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
-          <t>12.740</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.135</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>0.740</t>
+          <t>0.540</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>44.2</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="N14" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.615</t>
         </is>
       </c>
       <c r="O14" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>6.459</t>
         </is>
       </c>
       <c r="P14" s="3" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>44.0</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>46.31</t>
+          <t>50.81</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>3.174</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
@@ -1407,12 +1407,12 @@
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>3.174</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>12.697</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I15" s="3" t="inlineStr">
@@ -1422,37 +1422,37 @@
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
-          <t>12.697</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>0.174</t>
+          <t>0.130</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>0.697</t>
+          <t>0.521</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="N15" s="3" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>1.620</t>
         </is>
       </c>
       <c r="O15" s="3" t="inlineStr">
         <is>
-          <t>10.000</t>
+          <t>6.478</t>
         </is>
       </c>
       <c r="P15" s="3" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>45.3</t>
         </is>
       </c>
     </row>
@@ -1464,17 +1464,17 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>51.17</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>3.164</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>3.164</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>12.657</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
@@ -1499,104 +1499,37 @@
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t>12.657</t>
+          <t>8.999</t>
         </is>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>0.166</t>
+          <t>0.127</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
         <is>
-          <t>0.664</t>
+          <t>0.508</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="N16" s="3" t="inlineStr">
         <is>
-          <t>2.498</t>
+          <t>1.623</t>
         </is>
       </c>
       <c r="O16" s="3" t="inlineStr">
         <is>
-          <t>9.994</t>
+          <t>6.491</t>
         </is>
       </c>
       <c r="P16" s="3" t="inlineStr">
         <is>
-          <t>54.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>1:3:15</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>3.201</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>3.201</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>12.804</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>12.804</t>
-        </is>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>0.204</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="inlineStr">
-        <is>
-          <t>0.817</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="N17" s="3" t="inlineStr">
-        <is>
-          <t>2.497</t>
-        </is>
-      </c>
-      <c r="O17" s="3" t="inlineStr">
-        <is>
-          <t>9.987</t>
-        </is>
-      </c>
-      <c r="P17" s="3" t="inlineStr">
-        <is>
-          <t>56.1</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>

--- a/ExportData/Data User1 Test19-15-04-2021.xlsx
+++ b/ExportData/Data User1 Test19-15-04-2021.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:P16"/>
+  <dimension ref="A3:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,17 +540,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>46.84</t>
+          <t>51.17</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
@@ -560,12 +560,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>6.370</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="I4" s="3" t="inlineStr">
@@ -575,37 +575,37 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>6.370</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
         <is>
-          <t>0.370</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="N4" s="3" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="O4" s="3" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="P4" s="3" t="inlineStr">
         <is>
-          <t>30.1</t>
+          <t>30.0</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>47.21</t>
+          <t>51.51</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2.312</t>
+          <t>2.172</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>2.312</t>
+          <t>2.172</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>9.248</t>
+          <t>8.688</t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
@@ -652,37 +652,37 @@
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t>9.248</t>
+          <t>8.688</t>
         </is>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
         <is>
-          <t>0.493</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>31.0</t>
         </is>
       </c>
       <c r="N5" s="3" t="inlineStr">
         <is>
-          <t>1.689</t>
+          <t>1.558</t>
         </is>
       </c>
       <c r="O5" s="3" t="inlineStr">
         <is>
-          <t>6.755</t>
+          <t>6.232</t>
         </is>
       </c>
       <c r="P5" s="3" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>47.57</t>
+          <t>51.87</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -734,32 +734,32 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>0.116</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
         <is>
-          <t>0.465</t>
+          <t>0.466</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>32.1</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="N6" s="3" t="inlineStr">
         <is>
-          <t>1.634</t>
+          <t>1.633</t>
         </is>
       </c>
       <c r="O6" s="3" t="inlineStr">
         <is>
-          <t>6.534</t>
+          <t>6.533</t>
         </is>
       </c>
       <c r="P6" s="3" t="inlineStr">
         <is>
-          <t>32.9</t>
+          <t>32.7</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>47.93</t>
+          <t>52.23</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -811,17 +811,17 @@
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>0.113</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>0.454</t>
+          <t>0.455</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>33.1</t>
+          <t>32.9</t>
         </is>
       </c>
       <c r="N7" s="3" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="O7" s="3" t="inlineStr">
         <is>
-          <t>6.545</t>
+          <t>6.544</t>
         </is>
       </c>
       <c r="P7" s="3" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>34.1</t>
         </is>
       </c>
     </row>
@@ -846,16 +846,6 @@
           <t>1:1:0</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>48.29</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
           <t>2.250</t>
@@ -893,643 +883,27 @@
       </c>
       <c r="L8" s="3" t="inlineStr">
         <is>
-          <t>0.446</t>
+          <t>0.445</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>33.9</t>
         </is>
       </c>
       <c r="N8" s="3" t="inlineStr">
         <is>
-          <t>1.638</t>
+          <t>1.639</t>
         </is>
       </c>
       <c r="O8" s="3" t="inlineStr">
         <is>
-          <t>6.553</t>
+          <t>6.554</t>
         </is>
       </c>
       <c r="P8" s="3" t="inlineStr">
         <is>
-          <t>35.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>1:1:15</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>48.65</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>0.128</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="inlineStr">
-        <is>
-          <t>0.511</t>
-        </is>
-      </c>
-      <c r="M9" s="3" t="inlineStr">
-        <is>
-          <t>35.1</t>
-        </is>
-      </c>
-      <c r="N9" s="3" t="inlineStr">
-        <is>
-          <t>1.622</t>
-        </is>
-      </c>
-      <c r="O9" s="3" t="inlineStr">
-        <is>
-          <t>6.488</t>
-        </is>
-      </c>
-      <c r="P9" s="3" t="inlineStr">
-        <is>
-          <t>37.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>1:1:30</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>49.01</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>0.124</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="inlineStr">
-        <is>
-          <t>0.497</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
-        <is>
-          <t>36.1</t>
-        </is>
-      </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>1.625</t>
-        </is>
-      </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>6.502</t>
-        </is>
-      </c>
-      <c r="P10" s="3" t="inlineStr">
-        <is>
-          <t>38.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>1:1:45</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>49.37</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>0.121</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>0.483</t>
-        </is>
-      </c>
-      <c r="M11" s="3" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="N11" s="3" t="inlineStr">
-        <is>
-          <t>1.629</t>
-        </is>
-      </c>
-      <c r="O11" s="3" t="inlineStr">
-        <is>
-          <t>6.516</t>
-        </is>
-      </c>
-      <c r="P11" s="3" t="inlineStr">
-        <is>
-          <t>39.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>1:2:0</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>49.73</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J12" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>0.118</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="inlineStr">
-        <is>
-          <t>0.473</t>
-        </is>
-      </c>
-      <c r="M12" s="3" t="inlineStr">
-        <is>
-          <t>38.2</t>
-        </is>
-      </c>
-      <c r="N12" s="3" t="inlineStr">
-        <is>
-          <t>1.632</t>
-        </is>
-      </c>
-      <c r="O12" s="3" t="inlineStr">
-        <is>
-          <t>6.526</t>
-        </is>
-      </c>
-      <c r="P12" s="3" t="inlineStr">
-        <is>
-          <t>41.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>1:2:15</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>50.09</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>0.140</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="inlineStr">
-        <is>
-          <t>0.559</t>
-        </is>
-      </c>
-      <c r="M13" s="3" t="inlineStr">
-        <is>
-          <t>39.4</t>
-        </is>
-      </c>
-      <c r="N13" s="3" t="inlineStr">
-        <is>
-          <t>1.610</t>
-        </is>
-      </c>
-      <c r="O13" s="3" t="inlineStr">
-        <is>
-          <t>6.440</t>
-        </is>
-      </c>
-      <c r="P13" s="3" t="inlineStr">
-        <is>
-          <t>42.6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>1:2:30</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>50.45</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>0.135</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="inlineStr">
-        <is>
-          <t>0.540</t>
-        </is>
-      </c>
-      <c r="M14" s="3" t="inlineStr">
-        <is>
-          <t>40.5</t>
-        </is>
-      </c>
-      <c r="N14" s="3" t="inlineStr">
-        <is>
-          <t>1.615</t>
-        </is>
-      </c>
-      <c r="O14" s="3" t="inlineStr">
-        <is>
-          <t>6.459</t>
-        </is>
-      </c>
-      <c r="P14" s="3" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>1:2:45</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>50.81</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J15" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>0.130</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="inlineStr">
-        <is>
-          <t>0.521</t>
-        </is>
-      </c>
-      <c r="M15" s="3" t="inlineStr">
-        <is>
-          <t>41.6</t>
-        </is>
-      </c>
-      <c r="N15" s="3" t="inlineStr">
-        <is>
-          <t>1.620</t>
-        </is>
-      </c>
-      <c r="O15" s="3" t="inlineStr">
-        <is>
-          <t>6.478</t>
-        </is>
-      </c>
-      <c r="P15" s="3" t="inlineStr">
-        <is>
-          <t>45.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>1:3:0</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>51.17</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>2.250</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>8.999</t>
-        </is>
-      </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>0.127</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>0.508</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>42.7</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr">
-        <is>
-          <t>1.623</t>
-        </is>
-      </c>
-      <c r="O16" s="3" t="inlineStr">
-        <is>
-          <t>6.491</t>
-        </is>
-      </c>
-      <c r="P16" s="3" t="inlineStr">
-        <is>
-          <t>46.7</t>
+          <t>35.5</t>
         </is>
       </c>
     </row>
